--- a/ProductList.xlsx
+++ b/ProductList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\GitHub\dark-code-coffee-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E5375F-EEA5-41B5-BCFD-93B5167C4171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D8D9AA-9FCA-4541-9518-42ABFF4B5E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9417A9B9-1B9A-48B3-93A5-D5649F2ACBAC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9417A9B9-1B9A-48B3-93A5-D5649F2ACBAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -782,12 +782,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -802,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -811,6 +817,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1125,11 +1132,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82E090F-00B9-40CF-B37D-C17D10C8A0A3}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1192,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -1222,7 +1230,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -1260,7 +1268,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -1298,7 +1306,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -1315,7 +1323,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -1332,7 +1340,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -1352,7 +1360,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -1369,7 +1377,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -1386,7 +1394,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -1403,7 +1411,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -1420,7 +1428,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -1437,7 +1445,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -1455,7 +1463,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="315" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>158</v>
       </c>
       <c r="B14" t="s">
@@ -1492,7 +1500,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="315" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -1530,7 +1538,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="315" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -1568,7 +1576,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -1585,7 +1593,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -1602,7 +1610,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -1619,7 +1627,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>16</v>
       </c>
@@ -1636,7 +1644,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1653,7 +1661,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>16</v>
       </c>
@@ -1670,7 +1678,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1687,7 +1695,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -1704,7 +1712,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>21</v>
       </c>
@@ -1721,7 +1729,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>21</v>
       </c>
@@ -1738,7 +1746,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>21</v>
       </c>
@@ -1755,7 +1763,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>29</v>
       </c>
@@ -1772,7 +1780,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>29</v>
       </c>
@@ -1789,7 +1797,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -1806,7 +1814,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>209</v>
       </c>
@@ -1832,7 +1840,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>210</v>
       </c>
@@ -1858,7 +1866,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>211</v>
       </c>
@@ -1884,8 +1892,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="195" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:12" ht="195" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>154</v>
       </c>
       <c r="B34" t="s">
@@ -1922,7 +1930,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>155</v>
       </c>
@@ -1960,7 +1968,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>156</v>
       </c>
@@ -1998,7 +2006,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>24</v>
       </c>
@@ -2015,7 +2023,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>24</v>
       </c>
@@ -2032,7 +2040,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>24</v>
       </c>
@@ -2049,7 +2057,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>179</v>
       </c>
@@ -2087,7 +2095,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>180</v>
       </c>
@@ -2125,7 +2133,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>181</v>
       </c>
@@ -2163,7 +2171,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>182</v>
       </c>
@@ -2201,7 +2209,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>183</v>
       </c>
@@ -2239,7 +2247,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>184</v>
       </c>
@@ -2277,7 +2285,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>12</v>
       </c>
@@ -2291,7 +2299,7 @@
         <v>20.329999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>12</v>
       </c>
@@ -2305,7 +2313,7 @@
         <v>4.47</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>14</v>
       </c>
@@ -2322,7 +2330,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>14</v>
       </c>
@@ -2336,7 +2344,7 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>15</v>
       </c>
@@ -2350,7 +2358,7 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>185</v>
       </c>
@@ -2388,7 +2396,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>186</v>
       </c>
@@ -2426,7 +2434,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>187</v>
       </c>
@@ -2464,7 +2472,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>25</v>
       </c>
@@ -2481,7 +2489,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>25</v>
       </c>
@@ -2498,7 +2506,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>25</v>
       </c>
@@ -2515,7 +2523,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>26</v>
       </c>
@@ -2532,7 +2540,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>26</v>
       </c>
@@ -2549,7 +2557,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>26</v>
       </c>
@@ -2566,7 +2574,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>188</v>
       </c>
@@ -2604,7 +2612,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>189</v>
       </c>
@@ -2642,7 +2650,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>190</v>
       </c>
@@ -2680,7 +2688,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>104</v>
       </c>
@@ -2697,7 +2705,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>104</v>
       </c>
@@ -2714,7 +2722,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>104</v>
       </c>
@@ -2731,7 +2739,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="360" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>191</v>
       </c>
@@ -2769,7 +2777,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="360" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>192</v>
       </c>
@@ -2807,7 +2815,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="360" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>193</v>
       </c>
@@ -2845,7 +2853,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="348.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="348.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>194</v>
       </c>
@@ -2883,7 +2891,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>195</v>
       </c>
@@ -2921,7 +2929,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>196</v>
       </c>
@@ -2959,7 +2967,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="330" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>197</v>
       </c>
@@ -2997,7 +3005,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="330" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>198</v>
       </c>
@@ -3035,7 +3043,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="360" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>199</v>
       </c>
@@ -3073,7 +3081,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="360" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>200</v>
       </c>
@@ -3111,7 +3119,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="375" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>201</v>
       </c>
@@ -3149,7 +3157,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="375" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>202</v>
       </c>
@@ -3187,7 +3195,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="390" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="390" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>203</v>
       </c>
@@ -3225,7 +3233,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="390" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="390" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>204</v>
       </c>
@@ -3263,7 +3271,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="375" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>205</v>
       </c>
@@ -3301,7 +3309,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="375" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="375" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>206</v>
       </c>
@@ -3339,7 +3347,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>27</v>
       </c>
@@ -3350,7 +3358,7 @@
         <v>47.99</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>27</v>
       </c>
@@ -3362,7 +3370,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L83" xr:uid="{B82E090F-00B9-40CF-B37D-C17D10C8A0A3}"/>
+  <autoFilter ref="A1:L83" xr:uid="{B82E090F-00B9-40CF-B37D-C17D10C8A0A3}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="dcc0021k"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/ProductList.xlsx
+++ b/ProductList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\GitHub\dark-code-coffee-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D8D9AA-9FCA-4541-9518-42ABFF4B5E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A69D922-437C-4F67-9CC6-571FDE1C4441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9417A9B9-1B9A-48B3-93A5-D5649F2ACBAC}"/>
+    <workbookView xWindow="30" yWindow="3540" windowWidth="28755" windowHeight="15600" xr2:uid="{9417A9B9-1B9A-48B3-93A5-D5649F2ACBAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1132,12 +1132,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82E090F-00B9-40CF-B37D-C17D10C8A0A3}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,8 +1191,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="180" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>176</v>
       </c>
       <c r="B2" t="s">
@@ -1230,7 +1229,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -1268,7 +1267,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -1306,7 +1305,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -1323,7 +1322,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -1340,7 +1339,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -1360,7 +1359,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -1377,7 +1376,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -1394,7 +1393,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -1411,7 +1410,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -1428,7 +1427,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -1445,7 +1444,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -1500,7 +1499,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -1538,7 +1537,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -1576,7 +1575,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -1593,7 +1592,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -1610,7 +1609,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -1627,7 +1626,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>16</v>
       </c>
@@ -1644,7 +1643,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1661,7 +1660,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>16</v>
       </c>
@@ -1678,7 +1677,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1695,7 +1694,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -1712,7 +1711,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>21</v>
       </c>
@@ -1729,7 +1728,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>21</v>
       </c>
@@ -1746,7 +1745,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>21</v>
       </c>
@@ -1763,7 +1762,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>29</v>
       </c>
@@ -1780,7 +1779,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>29</v>
       </c>
@@ -1797,7 +1796,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -1814,7 +1813,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>209</v>
       </c>
@@ -1840,7 +1839,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>210</v>
       </c>
@@ -1866,7 +1865,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>211</v>
       </c>
@@ -1892,7 +1891,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>154</v>
       </c>
@@ -1930,7 +1929,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>155</v>
       </c>
@@ -1968,7 +1967,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>156</v>
       </c>
@@ -2006,7 +2005,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>24</v>
       </c>
@@ -2023,7 +2022,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>24</v>
       </c>
@@ -2040,7 +2039,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>24</v>
       </c>
@@ -2057,8 +2056,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="195" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B40" t="s">
@@ -2095,7 +2094,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>180</v>
       </c>
@@ -2133,7 +2132,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>181</v>
       </c>
@@ -2171,8 +2170,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B43" t="s">
@@ -2209,7 +2208,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>183</v>
       </c>
@@ -2247,7 +2246,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>184</v>
       </c>
@@ -2285,7 +2284,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>12</v>
       </c>
@@ -2299,7 +2298,7 @@
         <v>20.329999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>12</v>
       </c>
@@ -2313,7 +2312,7 @@
         <v>4.47</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>14</v>
       </c>
@@ -2330,7 +2329,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>14</v>
       </c>
@@ -2344,7 +2343,7 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>15</v>
       </c>
@@ -2358,8 +2357,8 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="240" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B51" t="s">
@@ -2396,7 +2395,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>186</v>
       </c>
@@ -2434,7 +2433,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>187</v>
       </c>
@@ -2472,7 +2471,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>25</v>
       </c>
@@ -2489,7 +2488,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>25</v>
       </c>
@@ -2506,7 +2505,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>25</v>
       </c>
@@ -2523,7 +2522,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>26</v>
       </c>
@@ -2540,7 +2539,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>26</v>
       </c>
@@ -2557,7 +2556,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>26</v>
       </c>
@@ -2574,8 +2573,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="270" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B60" t="s">
@@ -2612,7 +2611,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>189</v>
       </c>
@@ -2650,7 +2649,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>190</v>
       </c>
@@ -2688,7 +2687,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>104</v>
       </c>
@@ -2705,7 +2704,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>104</v>
       </c>
@@ -2722,7 +2721,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>104</v>
       </c>
@@ -2739,8 +2738,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="360" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>191</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -2777,7 +2776,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="360" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="360" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>192</v>
       </c>
@@ -2815,8 +2814,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="360" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>193</v>
       </c>
       <c r="B68" t="s">
@@ -2853,7 +2852,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="348.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="348.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>194</v>
       </c>
@@ -2891,8 +2890,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B70" t="s">
@@ -2929,7 +2928,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>196</v>
       </c>
@@ -2967,8 +2966,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="330" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:12" ht="330" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B72" t="s">
@@ -3005,7 +3004,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="330" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>198</v>
       </c>
@@ -3043,8 +3042,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="360" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>199</v>
       </c>
       <c r="B74" t="s">
@@ -3081,7 +3080,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="360" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="360" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>200</v>
       </c>
@@ -3119,8 +3118,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="375" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:12" ht="375" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>201</v>
       </c>
       <c r="B76" t="s">
@@ -3157,7 +3156,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="375" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>202</v>
       </c>
@@ -3195,7 +3194,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="390" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="390" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>203</v>
       </c>
@@ -3233,7 +3232,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="390" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="390" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>204</v>
       </c>
@@ -3271,8 +3270,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="375" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:12" ht="375" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B80" t="s">
@@ -3309,7 +3308,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="375" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="375" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>206</v>
       </c>
@@ -3347,7 +3346,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>27</v>
       </c>
@@ -3358,7 +3357,7 @@
         <v>47.99</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>27</v>
       </c>
@@ -3370,13 +3369,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L83" xr:uid="{B82E090F-00B9-40CF-B37D-C17D10C8A0A3}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="dcc0021k"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L83" xr:uid="{B82E090F-00B9-40CF-B37D-C17D10C8A0A3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
